--- a/pred_ohlcv/54_21/2020-01-21 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>836273.88585262</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>836273.88585262</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>912980.73437092</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>934018.10997092</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>900245.6194709201</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>909807.96537092</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1086759.42967092</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1034894.20897092</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1056656.13687092</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1108507.57347092</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1108507.57347092</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1289562.14877092</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1274623.22117092</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1274623.22117092</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1235118.73371587</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1148682.09321587</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1102518.58731587</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>953627.2128158699</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>953627.2128158699</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>953749.21491587</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>950739.2163158699</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>971396.7769158699</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>985092.2745435099</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1137804.66274351</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1134048.77862184</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1134048.77862184</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>789554.7993218401</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>665836.02222184</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>753027.76365569</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>812129.42665569</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>800836.39745569</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>767967.0647556899</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>803629.7815556899</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>584568.0026556898</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>334210.31251779</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>335830.61661779</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>335419.78931779</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>266834.9061727399</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>247547.8774727399</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>235399.1895727399</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>15477.01474188993</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>15477.01474188993</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>8573.286541889931</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>70072.36304188994</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>125573.6330418899</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>300113.9210418899</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>288086.2256418899</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>368720.2335418899</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>383087.3071418899</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>383087.3071418899</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>383087.3071418899</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>460256.2616418899</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>454770.6596418899</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>449426.8982418899</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>460944.4840418899</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>477462.7389188899</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>476869.2389188899</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>476869.2389188899</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>477039.2389188899</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>330309.6056188899</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>331322.3967188899</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>339511.2779188899</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>227205.2649188899</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>195723.0472188899</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>196123.0472188899</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>196959.6208188899</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>196959.6208188899</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>188626.2558188899</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>247887.6179188899</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>181712.6016188899</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>31011.7648188899</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>31011.7648188899</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-3123.510481110097</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-15687.9634811101</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-15687.9634811101</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-14778.5769811101</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-14923.9899811101</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-9804.085281110096</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-21504.4231811101</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-28940.3570811101</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>42006.11053521991</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>42006.11053521991</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-8645.611164780094</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-6406.655161800094</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-7450.745461800094</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>198125.0683188899</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>198125.0683188899</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>221849.5587734499</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>221849.5587734499</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>183562.7509734499</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>497811.0349734499</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>238570.0745854901</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>333650.6648854901</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>331978.1518083801</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>331978.1518083801</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>331978.1518083801</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>258921.4092136101</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>37825.24113729002</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>32914.36713729001</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>27037.01313729001</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>146297.00413729</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>165240.70833422</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>158291.32583422</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>151562.77023422</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>160788.54834935</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>191146.49554935</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>153814.57384935</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>153814.57384935</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>270967.35554935</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>274879.18824935</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>268463.74804935</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>348686.95234935</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>460900.27104935</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>439904.45274512</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>439904.45274512</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>439904.45274512</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>506142.15454512</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>479599.7179451199</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>479599.7179451199</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>445947.41054512</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>477976.91596517</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>590572.1247451199</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>480861.30894512</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>480861.30894512</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>373240.77420341</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>374543.69536241</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>387134.1618732</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>432009.4275732</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>357514.8801732</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>317280.2653732</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>393427.8700732</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>386300.2862731999</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>401235.1293731999</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>536753.2787732</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>505622.3704732</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>449691.2937732</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>531309.3502732001</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>422652.7467732001</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>486310.9133201201</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>456894.0390201201</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>456894.0390201201</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>440731.7319201201</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>349515.4176201201</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>349515.4176201201</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>367145.3266976701</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>367145.3266976701</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>284857.6127976701</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>297039.7438976701</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>297039.7438976701</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>330091.3615650701</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>291352.82806507</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>291352.82806507</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>291352.82806507</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>305413.00946507</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>305413.00946507</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>266981.7294650701</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>356095.50935166</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>356095.50935166</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>297172.4274643901</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>142685.1003375201</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>165273.3159375201</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>148725.7603375201</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-65396829.84682915</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-65453671.72292915</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-65442584.03642915</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-65427754.92052915</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-65370750.85822915</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-65385202.73022915</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-65286087.13537651</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-69979851.0457767</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-70110383.4465767</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-70046607.93704993</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-70597809.40606345</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-71036532.38777779</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-71036532.38777779</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-71158335.2226778</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-71321694.12073258</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-71420332.11356726</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-71102677.54456726</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-71127475.22816725</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-71430244.81106725</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-70646026.13472526</v>
       </c>
       <c r="H1208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-69042043.74074236</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-69108228.52534236</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-69048788.83404236</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-69167645.93685475</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-68846515.00935476</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-68907207.87535475</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-68933657.56055301</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-68937946.58915302</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-68938456.58915302</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-68937510.69067568</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-68941108.79087567</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-68981436.49077567</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-69041259.23097567</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-69041259.23097567</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-69011843.96740621</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-69013807.02440621</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-69006136.62140621</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-69006136.62140621</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-69034794.56450622</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-68972660.27750622</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-68801212.24340622</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-68764355.22410622</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-68764440.58920622</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-68817339.63770622</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-68903581.47440623</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-68903581.47440623</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-68901107.08634461</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>836273.88585262</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>836273.88585262</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>912980.73437092</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>934018.10997092</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>900245.6194709201</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>909807.96537092</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1086759.42967092</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1034894.20897092</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1056656.13687092</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1076740.83087092</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1215975.34657092</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1108507.57347092</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1108507.57347092</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1289562.14877092</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1274623.22117092</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1274623.22117092</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1235118.73371587</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1148682.09321587</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1102518.58731587</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>953627.2128158699</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>953627.2128158699</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>953749.21491587</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>950739.2163158699</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>971396.7769158699</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>985092.2745435099</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1137804.66274351</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1134048.77862184</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1134048.77862184</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>789554.7993218401</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>665836.02222184</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>753027.76365569</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>812129.42665569</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>800836.39745569</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>774922.6851556899</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>767967.0647556899</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>807578.9012556899</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>803629.7815556899</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>334210.31251779</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>335830.61661779</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>335419.78931779</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>334256.56791779</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>266834.9061727399</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>247547.8774727399</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>235399.1895727399</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>15477.01474188993</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>15477.01474188993</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1260.265241889929</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>17734.58094188993</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>17734.58094188993</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>17734.58094188993</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>17870.55514188993</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>8573.286541889931</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>70072.36304188994</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>125573.6330418899</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>300113.9210418899</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>288086.2256418899</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>368720.2335418899</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>383087.3071418899</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>383087.3071418899</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>383087.3071418899</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>460256.2616418899</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>454770.6596418899</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>449426.8982418899</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>460944.4840418899</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>477462.7389188899</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>476869.2389188899</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>476869.2389188899</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>477039.2389188899</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>425402.8868188899</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>330309.6056188899</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>331322.3967188899</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>339511.2779188899</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>227205.2649188899</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>195723.0472188899</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>196123.0472188899</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>196959.6208188899</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>196959.6208188899</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>188626.2558188899</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>247887.6179188899</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>181712.6016188899</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>31011.7648188899</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>31011.7648188899</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-3123.510481110097</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-15687.9634811101</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-15687.9634811101</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-14778.5769811101</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-14923.9899811101</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-9804.085281110096</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-21504.4231811101</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-28940.3570811101</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>42006.11053521991</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>42006.11053521991</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-8645.611164780094</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-6406.655161800094</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-7450.745461800094</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>198125.0683188899</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>198125.0683188899</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>221849.5587734499</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>221849.5587734499</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>230834.4259734499</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>183562.7509734499</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>497811.0349734499</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>406511.5610734499</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>603680.0514734499</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>719225.2050734499</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-253283.7793265501</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-299633.0561265501</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>441405.17957345</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>441405.17957345</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>484495.73017345</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>484495.73017345</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>523809.0626398301</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>474206.1575398301</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>354287.2105398301</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>372736.9481398301</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>380344.4084948301</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>383090.2639948301</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>381882.9221948301</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>225506.6765854901</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>238715.8105854901</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>238570.0745854901</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>238570.0745854901</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>333650.6648854901</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>331978.1518083801</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>331978.1518083801</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>331978.1518083801</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>320022.9217136101</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>258921.4092136101</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>266458.16981361</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>114812.40340609</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>102710.78510609</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>120915.68264316</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>40992.31534830002</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>40992.31534830002</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>6764.164248300018</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>64098.32953729002</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>37825.24113729002</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>32914.36713729001</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>27037.01313729001</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>146297.00413729</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>191146.49554935</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>153814.57384935</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>153814.57384935</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>270967.35554935</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>274879.18824935</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>268463.74804935</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>348686.95234935</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>460900.27104935</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>439904.45274512</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>439904.45274512</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>439904.45274512</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>506142.15454512</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>479599.7179451199</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>479599.7179451199</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>445947.41054512</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>477976.91596517</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>590572.1247451199</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>480861.30894512</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>480861.30894512</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>373240.77420341</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>374543.69536241</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>387134.1618732</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>432009.4275732</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>357514.8801732</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>317280.2653732</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>393427.8700732</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>386300.2862731999</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>401235.1293731999</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>536753.2787732</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>505622.3704732</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>449691.2937732</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>531309.3502732001</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>422652.7467732001</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>486310.9133201201</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>456894.0390201201</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>456894.0390201201</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>440731.7319201201</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>349515.4176201201</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>349515.4176201201</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>367145.3266976701</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>367145.3266976701</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>284857.6127976701</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>297039.7438976701</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>297039.7438976701</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>330091.3615650701</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>291352.82806507</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>291352.82806507</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>291352.82806507</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>305413.00946507</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>305413.00946507</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>266981.7294650701</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>356095.50935166</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>356095.50935166</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>297172.4274643901</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>142685.1003375201</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>165273.3159375201</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>148725.7603375201</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>103254.6000375201</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>123749.2810375201</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>123749.2810375201</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>123749.2810375201</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>123749.2810375201</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>119566.8628375201</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>112603.4381375201</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>96382.04353752006</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>114931.6753375201</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>81356.43623752007</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-329698.9655624799</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-251431.8984624799</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-261464.6231222899</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-100856.7692344399</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-48166.50868209991</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-55862.46888209991</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-71185.77958209992</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-60716.03258209991</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-60716.03258209991</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-51688.88328209992</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-104562.7261820999</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-249631.4142656799</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-246550.1236037999</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-246776.9856037999</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-264986.1263037999</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-271916.5424037999</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-271916.5424037999</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-271916.5424037999</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-271439.9540037999</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-388035.0470037999</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-65396829.84682915</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-65453671.72292915</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-65442584.03642915</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-65427754.92052915</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-65370750.85822915</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-65370792.85822915</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-65385202.73022915</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-65286087.13537651</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-69979851.0457767</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-70110383.4465767</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-70046607.93704993</v>
       </c>
       <c r="H1173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-70597809.40606345</v>
       </c>
       <c r="H1180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-71036532.38777779</v>
       </c>
       <c r="H1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-71036532.38777779</v>
       </c>
       <c r="H1182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-71158335.2226778</v>
       </c>
       <c r="H1183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-71321694.12073258</v>
       </c>
       <c r="H1184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-71420332.11356726</v>
       </c>
       <c r="H1185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-71102677.54456726</v>
       </c>
       <c r="H1186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-71094691.45376725</v>
       </c>
       <c r="H1189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-71127475.22816725</v>
       </c>
       <c r="H1190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-71430244.81106725</v>
       </c>
       <c r="H1191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-71575524.70273359</v>
       </c>
       <c r="H1192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-70646026.13472526</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-70099231.02772526</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-69942144.62122527</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-69942144.62122527</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-69042043.74074236</v>
       </c>
       <c r="H1233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-69108228.52534236</v>
       </c>
       <c r="H1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-69048788.83404236</v>
       </c>
       <c r="H1235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-69167645.93685475</v>
       </c>
       <c r="H1236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-68846515.00935476</v>
       </c>
       <c r="H1237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-68907207.87535475</v>
       </c>
       <c r="H1238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-68933657.56055301</v>
       </c>
       <c r="H1242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-68937946.58915302</v>
       </c>
       <c r="H1243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-68938456.58915302</v>
       </c>
       <c r="H1244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-68937510.69067568</v>
       </c>
       <c r="H1245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-68941108.79087567</v>
       </c>
       <c r="H1246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-68972660.96797568</v>
       </c>
       <c r="H1251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-68981436.49077567</v>
       </c>
       <c r="H1252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-69041259.23097567</v>
       </c>
       <c r="H1253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-69041259.23097567</v>
       </c>
       <c r="H1254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-69011843.96740621</v>
       </c>
       <c r="H1255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-69013807.02440621</v>
       </c>
       <c r="H1256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-69006136.62140621</v>
       </c>
       <c r="H1257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-69006136.62140621</v>
       </c>
       <c r="H1258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-69034794.56450622</v>
       </c>
       <c r="H1259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-68972660.27750622</v>
       </c>
       <c r="H1260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-68801212.24340622</v>
       </c>
       <c r="H1261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-68764355.22410622</v>
       </c>
       <c r="H1262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-68764440.58920622</v>
       </c>
       <c r="H1263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-68817339.63770622</v>
       </c>
       <c r="H1264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-68903581.47440623</v>
       </c>
       <c r="H1265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-68903581.47440623</v>
       </c>
       <c r="H1266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-68901107.08634461</v>
       </c>
       <c r="H1267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
